--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:21:11+00:00</t>
+    <t>2024-10-10T16:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:26:55+00:00</t>
+    <t>2024-10-10T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:40:38+00:00</t>
+    <t>2024-10-11T14:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:20:05+00:00</t>
+    <t>2024-10-31T12:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:52:49+00:00</t>
+    <t>2024-11-05T10:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:01:35+00:00</t>
+    <t>2024-11-08T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:53:16+00:00</t>
+    <t>2024-11-08T17:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:02:00+00:00</t>
+    <t>2024-11-08T17:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:33:21+00:00</t>
+    <t>2024-11-13T21:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:35:06+00:00</t>
+    <t>2024-11-14T08:22:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -827,11 +827,11 @@
     <t>External identifiers for this item.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.system pattern</t>
+    <t>Slice based on the identifier.system value</t>
   </si>
   <si>
     <t>.id</t>
@@ -1105,10 +1105,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
@@ -7684,7 +7680,7 @@
         <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>351</v>
+        <v>194</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
@@ -7709,7 +7705,7 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -7717,13 +7713,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>345</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>346</v>
@@ -7748,7 +7744,7 @@
         <v>142</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>348</v>
@@ -7782,7 +7778,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7815,7 +7811,7 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7823,13 +7819,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>345</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>346</v>
@@ -7854,7 +7850,7 @@
         <v>142</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>348</v>
@@ -7888,7 +7884,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -7921,7 +7917,7 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -7929,10 +7925,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7958,10 +7954,10 @@
         <v>142</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7992,25 +7988,25 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8025,7 +8021,7 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -8033,10 +8029,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8059,13 +8055,13 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8116,7 +8112,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8131,18 +8127,18 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8168,10 +8164,10 @@
         <v>98</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8222,7 +8218,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8237,7 +8233,7 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8245,10 +8241,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8274,13 +8270,13 @@
         <v>98</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8330,7 +8326,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8345,7 +8341,7 @@
         <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -8353,10 +8349,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8379,13 +8375,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8436,7 +8432,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8451,7 +8447,7 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
@@ -8459,10 +8455,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8485,13 +8481,13 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8542,7 +8538,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8557,7 +8553,7 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -8565,10 +8561,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8591,16 +8587,16 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8650,7 +8646,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8665,7 +8661,7 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8673,10 +8669,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8699,16 +8695,16 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8758,7 +8754,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -8773,7 +8769,7 @@
         <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8781,10 +8777,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8810,13 +8806,13 @@
         <v>142</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8845,10 +8841,10 @@
         <v>211</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -8866,7 +8862,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8881,7 +8877,7 @@
         <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -8889,10 +8885,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8915,13 +8911,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8972,7 +8968,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8995,10 +8991,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9101,10 +9097,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9209,14 +9205,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9238,10 +9234,10 @@
         <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>108</v>
@@ -9296,7 +9292,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9319,10 +9315,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9348,10 +9344,10 @@
         <v>142</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9381,7 +9377,7 @@
         <v>211</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>75</v>
@@ -9402,7 +9398,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9417,7 +9413,7 @@
         <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
@@ -9425,10 +9421,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9451,16 +9447,16 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9510,7 +9506,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9525,7 +9521,7 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>75</v>
@@ -9533,10 +9529,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9562,13 +9558,13 @@
         <v>142</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9597,11 +9593,11 @@
         <v>211</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9618,7 +9614,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9633,7 +9629,7 @@
         <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>75</v>
@@ -9641,10 +9637,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9670,13 +9666,13 @@
         <v>142</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9706,7 +9702,7 @@
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -9724,7 +9720,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -9739,7 +9735,7 @@
         <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9747,10 +9743,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9776,13 +9772,13 @@
         <v>142</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9832,7 +9828,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9855,10 +9851,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9884,10 +9880,10 @@
         <v>142</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9917,11 +9913,11 @@
         <v>211</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z75" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AA75" t="s" s="2">
         <v>75</v>
       </c>
@@ -9938,7 +9934,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -9953,7 +9949,7 @@
         <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>75</v>
@@ -9961,10 +9957,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9990,10 +9986,10 @@
         <v>324</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10044,7 +10040,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10059,7 +10055,7 @@
         <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>75</v>
@@ -10067,10 +10063,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10093,16 +10089,16 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10152,7 +10148,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10167,7 +10163,7 @@
         <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>75</v>
@@ -10175,10 +10171,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10281,10 +10277,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10389,14 +10385,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10418,10 +10414,10 @@
         <v>105</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>108</v>
@@ -10476,7 +10472,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -10499,10 +10495,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10528,10 +10524,10 @@
         <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10561,11 +10557,11 @@
         <v>145</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>75</v>
       </c>
@@ -10582,7 +10578,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10597,7 +10593,7 @@
         <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>75</v>
@@ -10605,10 +10601,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10634,10 +10630,10 @@
         <v>324</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10688,7 +10684,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -10703,7 +10699,7 @@
         <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10711,10 +10707,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10737,16 +10733,16 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10796,7 +10792,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -10811,7 +10807,7 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10819,10 +10815,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10845,16 +10841,16 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10904,7 +10900,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -10919,7 +10915,7 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>75</v>
@@ -10927,10 +10923,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10953,13 +10949,13 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11010,7 +11006,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -11025,7 +11021,7 @@
         <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>75</v>
@@ -11033,10 +11029,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11139,10 +11135,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11247,14 +11243,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11276,10 +11272,10 @@
         <v>105</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>108</v>
@@ -11334,7 +11330,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -11357,10 +11353,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11386,10 +11382,10 @@
         <v>98</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11440,7 +11436,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>84</v>
@@ -11463,10 +11459,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11492,10 +11488,10 @@
         <v>310</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11546,7 +11542,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11561,7 +11557,7 @@
         <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11569,10 +11565,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11598,10 +11594,10 @@
         <v>98</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11652,7 +11648,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -11667,7 +11663,7 @@
         <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>75</v>
@@ -11675,10 +11671,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11701,13 +11697,13 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11758,7 +11754,7 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:22:05+00:00</t>
+    <t>2024-11-18T16:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:15:50+00:00</t>
+    <t>2024-12-02T14:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:05:36+00:00</t>
+    <t>2025-01-15T07:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T07:47:50+00:00</t>
+    <t>2025-01-27T16:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:40:24+00:00</t>
+    <t>2025-01-27T17:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
